--- a/medicine/Psychotrope/Liste_de_brasseries_du_Nord-Pas-de-Calais/Liste_de_brasseries_du_Nord-Pas-de-Calais.xlsx
+++ b/medicine/Psychotrope/Liste_de_brasseries_du_Nord-Pas-de-Calais/Liste_de_brasseries_du_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nord et le Pas-de-Calais sont deux départements brassicoles de France après l'Alsace. Dans le premier quart du XXIe siècle, la région Hauts-de-France compte trois brasseries industrielles, la brasserie Duyck (qui brasse la bière Jenlain), la brasserie du Pélican (groupe Heineken) et la brasserie de Saint-Omer, ainsi que de nombreuses brasseries artisanales et microbrasseries.
 </t>
@@ -511,12 +523,49 @@
           <t>Anciennes brasseries du département du Nord</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Nord a connu dans son histoire de nombreuses brasseries et différentes marques de bière. Il existait parfois plusieurs brasseries dans la même ville, dont la majorité date des XIXe et XXe siècles.
-Le terme brasserie est recensé à 298 reprises au titre de l'inventaire général du patrimoine culturel [1].
-Répertoriées à l'inventaire général du patrimoine culturel
-Amfroipret : Brasserie malterie Carlier puis Carlier Stordeur
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nord a connu dans son histoire de nombreuses brasseries et différentes marques de bière. Il existait parfois plusieurs brasseries dans la même ville, dont la majorité date des XIXe et XXe siècles.
+Le terme brasserie est recensé à 298 reprises au titre de l'inventaire général du patrimoine culturel .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anciennes brasseries du département du Nord</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répertoriées à l'inventaire général du patrimoine culturel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amfroipret : Brasserie malterie Carlier puis Carlier Stordeur
 Annœullin : Brasserie Maille, puis Lepers
 Anor :  Brasserie, malterie dite Brasserie-malterie Martin, puis Hotte Martin, puis Warocquier et Cie
 Armbouts-Cappel : Brasserie Dupond
@@ -541,11 +590,11 @@
 Cambrai  : Brasserie Saint Georges
 Camphin-en-Carembault : Brasserie DePlus
 Cappelle-en-Pévèle : Brasserie Lotte ou Brasserie du Noir debout puis brasserie Poutrain Lotte
-Cassel : Brasserie malterie Clyty puis Everaere puis Everaere Caulier. Brasserie Casselloise[1]. Brasserie Decool
+Cassel : Brasserie malterie Clyty puis Everaere puis Everaere Caulier. Brasserie Casselloise. Brasserie Decool
 Coudekerque-Branche : Brasserie Boudenoot
 Croix : Brasserie coopérative de Croix (Brasserie Cambier)
 Cysoing :Brasserie Demons Deroy puis Stien  Brasserie coopérative de l’Union au 51 rue Jean-Baptiste Lebas
-Douai : Brasserie dite Grande Brasserie coopérative des Enfants de Gayant, puis Brasseurs de Gayant, déménagée à Arques en 2017 pour devenir la brasserie Goudale[2]
+Douai : Brasserie dite Grande Brasserie coopérative des Enfants de Gayant, puis Brasseurs de Gayant, déménagée à Arques en 2017 pour devenir la brasserie Goudale
 Douai : Brasserie Treffous, puis Masclet, puis Boisseau
 Douai : Brasserie, malterie dite Brasserie-malterie Lalart et Marronnier
 Douai : Brasserie, malterie dite Brasserie-malterie Lespagnol Lambelin
@@ -651,9 +700,43 @@
 Wattignies : Brasserie Hocedez Becquart
 Wattrelos : Brasserie coopérative l'Union de Roubaix Wattrelos
 Wignehies : Brasserie, malterie dite Brasserie-malterie coopérative l'Idéale
-Winnezeele : Brasserie Donat Cattoen, puis Donat Callven, puis Decroocq[3]
-Autres anciennes brasseries du Nord
-Aubigny-au-Bac : Brasserie du Cambier
+Winnezeele : Brasserie Donat Cattoen, puis Donat Callven, puis Decroocq</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anciennes brasseries du département du Nord</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres anciennes brasseries du Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aubigny-au-Bac : Brasserie du Cambier
 Coudekerque-Branche : Brasserie Carlier, puis dite Brasserie moderne
 Coudekerque-Branche : Brasserie Vannoorenberghe, puis dite de l'Espérance
 Hélesmes : Brasserie Boissau
@@ -666,35 +749,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Anciennes brasseries du département du Pas-de-Calais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le terme brasserie est recensé à 120 reprises au titre de l'inventaire général du patrimoine culturel [2].
-Répertoriées à l'inventaire général du patrimoine culturel
-Achicourt : Brasserie, malterie dite brasserie-malterie Charlet
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme brasserie est recensé à 120 reprises au titre de l'inventaire général du patrimoine culturel .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anciennes brasseries du département du Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répertoriées à l'inventaire général du patrimoine culturel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Achicourt : Brasserie, malterie dite brasserie-malterie Charlet
 Acq (Pas-de-Calais) : Brasserie, malterie dite brasserie-malterie Cauchy Cuisinier, puis Cauchy
 Acq (Pas-de-Calais) : Brasserie, malterie dite brasserie-malterie Cuisinier
 Aire-sur-la-Lys : Ancienne brasserie-malterie de la Lys
@@ -813,45 +933,81 @@
 Wimille : Brasserie Fidon Bertèche, puis Choteau
 Wimille : Brasserie Lebeurre Guilbert, puis Lebeurre Cappelle, puis Lebeurre Duchateau
 Zouafques : Brasserie Carton, actuellement entrepôt agricole
-Zutkerque : Brasserie Lambin, puis Bertheloot, puis Duval
-Autres anciennes brasseries du Pas-de-Calais
-Annezin : Brasserie Foubert
+Zutkerque : Brasserie Lambin, puis Bertheloot, puis Duval</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anciennes brasseries du département du Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres anciennes brasseries du Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Annezin : Brasserie Foubert
 Beuvry : Brasserie Delepoulle
 Biache-Saint-Vaast : Brasserie, malterie Gonse-Lantoine
 Burbure : Brasserie Decroix Octave et Jules puis Rousseaux Marcel puis Rousseaux Pierre.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_brasseries_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Brasseries actuelles[4]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Aix-Noulette : Brasserie Saint-Germain
 Arleux : Brasserie la Flamine
 Arques : Brasserie Goudale
-Arras : L'arras'in[5]
+Arras : L'arras'in
 Auchy-les-Mines : brasserie artésienne
 Avelin : Brasserie des Barbes Blanches
 Bailleul : Brasserie Beck
@@ -866,8 +1022,8 @@
 Dunkerque : Brasserie Osseus
 Ennevelin : Brasserie du Pavé
 Esquelbecq : Brasserie Thiriez
-Etaing : Brasserie des 7 bonnettes[5]
-Gavrelle : Brasserie paysanne de l’Artois[5]
+Etaing : Brasserie des 7 bonnettes
+Gavrelle : Brasserie paysanne de l’Artois
 Gussignies : Brasserie Bailleux
 Haisnes : brasserie artésienne
 Hénin-Beaumont : Ferme Brasserie de Beaumont
@@ -879,8 +1035,8 @@
 Le Quesnoy : Brasserie Traditionnelle de l'Avesnois
 Lille : Brasserie Gobrecht
 Lille : Brasserie du Singe Savant
-Lille : Brasserie Célestin (micro-brasserie)[6]
-Marquette-lez-Lille : Brasserie Célestin (brasserie artisanale)[7]
+Lille : Brasserie Célestin (micro-brasserie)
+Marquette-lez-Lille : Brasserie Célestin (brasserie artisanale)
 Marquillies : Brasserie de la ferme des Mottes
 Merville : Brasserie du Caou
 Merville : Brasserie du Pays Flamand
@@ -893,12 +1049,12 @@
 Neuville-en-Avesnois : Brasserie Dreum
 Ostricourt : Brasserie TKB
 Quérénaing : Brasserie Terre et Tradition
-Riencourt-lès-Cagnicourt : L’Estoupette[5]
-Rivière : Brasserie coopérative La Rivière[5]
-Roëllecourt : Brasserie Brebis Galeuse (micro-brasserie)[8]
-Roncq : Brasserie Lilloise[9]
+Riencourt-lès-Cagnicourt : L’Estoupette
+Rivière : Brasserie coopérative La Rivière
+Roëllecourt : Brasserie Brebis Galeuse (micro-brasserie)
+Roncq : Brasserie Lilloise
 Saint-Amand-les-Eaux : Brasserie des Sources
-Saint-André-lez-Lille : Brique House Brewery[10]
+Saint-André-lez-Lille : Brique House Brewery
 Saint-Léonard : Brasserie chromatique
 Saint-Omer : Brasserie de Saint-Omer
 Saint-Omer : Brasserie audomaroise
@@ -908,7 +1064,7 @@
 Tardinghen : Brasserie des 2 caps
 Valenciennes : Brasserie au Dela
 Villeneuve-d'Ascq : Brasserie artisanale Moulins d'Ascq
-Wailly : L'Intemporelle[5]</t>
+Wailly : L'Intemporelle</t>
         </is>
       </c>
     </row>
